--- a/Data_preparation/datasets/final_data/TRADE_DESK_INC_A.xlsx
+++ b/Data_preparation/datasets/final_data/TRADE_DESK_INC_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42277</v>
       </c>
       <c r="D2">
-        <v>20.73999977111816</v>
+        <v>2.875</v>
       </c>
       <c r="E2">
-        <v>22.21999931335449</v>
+        <v>2.921000003814697</v>
       </c>
       <c r="F2">
-        <v>23.29999923706055</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="G2">
-        <v>20.07999992370605</v>
+        <v>2.684000015258789</v>
       </c>
       <c r="H2">
-        <v>272490000</v>
+        <v>445666933</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P2">
         <v>28768000</v>
@@ -837,22 +729,22 @@
         <v>42369</v>
       </c>
       <c r="D3">
-        <v>84.98000335693359</v>
+        <v>2.875</v>
       </c>
       <c r="E3">
-        <v>62.20999908447266</v>
+        <v>2.921000003814697</v>
       </c>
       <c r="F3">
-        <v>85.66999816894531</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="G3">
-        <v>57.66999816894531</v>
+        <v>2.684000015258789</v>
       </c>
       <c r="H3">
-        <v>207519000</v>
+        <v>445666933</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>40841000</v>
@@ -926,22 +818,22 @@
         <v>42460</v>
       </c>
       <c r="D4">
-        <v>21.06878244070543</v>
+        <v>2.875</v>
       </c>
       <c r="E4">
-        <v>18.4537239074707</v>
+        <v>2.921000003814697</v>
       </c>
       <c r="F4">
-        <v>21.22490591599555</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="G4">
-        <v>18.25076398515507</v>
+        <v>2.684000015258789</v>
       </c>
       <c r="H4">
-        <v>199618386</v>
+        <v>445666933</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>30378000</v>
@@ -1003,22 +895,22 @@
         <v>42551</v>
       </c>
       <c r="D5">
-        <v>96.04321029982444</v>
+        <v>2.875</v>
       </c>
       <c r="E5">
-        <v>95.93419647216795</v>
+        <v>2.921000003814697</v>
       </c>
       <c r="F5">
-        <v>101.2592138942743</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="G5">
-        <v>92.99075914643778</v>
+        <v>2.684000015258789</v>
       </c>
       <c r="H5">
-        <v>112434397</v>
+        <v>445666933</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>19634000</v>
@@ -1098,22 +990,22 @@
         <v>42643</v>
       </c>
       <c r="D6">
-        <v>10.08891169552178</v>
+        <v>2.911999940872192</v>
       </c>
       <c r="E6">
-        <v>10.03531837463379</v>
+        <v>2.517999887466431</v>
       </c>
       <c r="F6">
-        <v>10.24075858308116</v>
+        <v>2.947000026702881</v>
       </c>
       <c r="G6">
-        <v>9.423462821204105</v>
+        <v>2.349999904632568</v>
       </c>
       <c r="H6">
-        <v>1319450062</v>
+        <v>445666933</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>1116656062</v>
@@ -1226,22 +1118,22 @@
         <v>42735</v>
       </c>
       <c r="D7">
-        <v>45.97999954223633</v>
+        <v>2.805000066757202</v>
       </c>
       <c r="E7">
-        <v>53.06000137329102</v>
+        <v>2.966000080108643</v>
       </c>
       <c r="F7">
-        <v>53.20000076293945</v>
+        <v>3.125</v>
       </c>
       <c r="G7">
-        <v>45.61000061035156</v>
+        <v>2.640000104904175</v>
       </c>
       <c r="H7">
-        <v>50476952</v>
+        <v>445666933</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>1067314246</v>
@@ -1354,22 +1246,22 @@
         <v>42825</v>
       </c>
       <c r="D8">
-        <v>5.311937668057123</v>
+        <v>3.719000101089478</v>
       </c>
       <c r="E8">
-        <v>5.160849571228027</v>
+        <v>3.734999895095825</v>
       </c>
       <c r="F8">
-        <v>5.327841658292762</v>
+        <v>3.844000101089478</v>
       </c>
       <c r="G8">
-        <v>4.930241523220734</v>
+        <v>3.503999948501587</v>
       </c>
       <c r="H8">
-        <v>3071530678</v>
+        <v>445666933</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>1459426802</v>
@@ -1470,22 +1362,22 @@
         <v>42916</v>
       </c>
       <c r="D9">
-        <v>70.19999694824219</v>
+        <v>5.063000202178955</v>
       </c>
       <c r="E9">
-        <v>61.70000076293945</v>
+        <v>5.330999851226807</v>
       </c>
       <c r="F9">
-        <v>77.92500305175781</v>
+        <v>5.787000179290772</v>
       </c>
       <c r="G9">
-        <v>61</v>
+        <v>4.809000015258789</v>
       </c>
       <c r="H9">
-        <v>55686229</v>
+        <v>445666933</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>2002154320</v>
@@ -1598,22 +1490,22 @@
         <v>43008</v>
       </c>
       <c r="D10">
-        <v>34.39338093652559</v>
+        <v>6.201000213623047</v>
       </c>
       <c r="E10">
-        <v>33.61638259887695</v>
+        <v>6.592000007629395</v>
       </c>
       <c r="F10">
-        <v>35.08107037354011</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="G10">
-        <v>32.32138309818511</v>
+        <v>5.85699987411499</v>
       </c>
       <c r="H10">
-        <v>457000000</v>
+        <v>445666933</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>2508454195</v>
@@ -1726,22 +1618,22 @@
         <v>43100</v>
       </c>
       <c r="D11">
-        <v>8.751999855041504</v>
+        <v>4.568999767303467</v>
       </c>
       <c r="E11">
-        <v>9.208000183105469</v>
+        <v>4.848000049591064</v>
       </c>
       <c r="F11">
-        <v>9.28600025177002</v>
+        <v>5.194900035858154</v>
       </c>
       <c r="G11">
-        <v>8.696000099182129</v>
+        <v>4.545000076293945</v>
       </c>
       <c r="H11">
-        <v>766266033</v>
+        <v>445666933</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>1878339720</v>
@@ -1854,22 +1746,22 @@
         <v>43190</v>
       </c>
       <c r="D12">
-        <v>35.97240561616163</v>
+        <v>4.895999908447266</v>
       </c>
       <c r="E12">
-        <v>31.91368293762207</v>
+        <v>5.117000102996826</v>
       </c>
       <c r="F12">
-        <v>36.75260893317965</v>
+        <v>5.500999927520752</v>
       </c>
       <c r="G12">
-        <v>31.53188151649943</v>
+        <v>4.577199935913086</v>
       </c>
       <c r="H12">
-        <v>5186523104</v>
+        <v>445666933</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>2076603748</v>
@@ -1979,22 +1871,22 @@
         <v>43281</v>
       </c>
       <c r="D13">
-        <v>22.36372947692871</v>
+        <v>9.253999710083008</v>
       </c>
       <c r="E13">
-        <v>22.87315368652344</v>
+        <v>8.432000160217285</v>
       </c>
       <c r="F13">
-        <v>25.01273536682129</v>
+        <v>9.786999702453612</v>
       </c>
       <c r="G13">
-        <v>22.00713157653809</v>
+        <v>8.366000175476074</v>
       </c>
       <c r="H13">
-        <v>60308678</v>
+        <v>445666933</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>3951054199</v>
@@ -2095,22 +1987,22 @@
         <v>43373</v>
       </c>
       <c r="D14">
-        <v>40.01662959399956</v>
+        <v>15.15100002288818</v>
       </c>
       <c r="E14">
-        <v>40.09360122680664</v>
+        <v>12.35499954223633</v>
       </c>
       <c r="F14">
-        <v>42.52247987457982</v>
+        <v>15.27600002288818</v>
       </c>
       <c r="G14">
-        <v>36.22792094161961</v>
+        <v>10.5024995803833</v>
       </c>
       <c r="H14">
-        <v>4757218036</v>
+        <v>445666933</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>6476557235</v>
@@ -2220,22 +2112,22 @@
         <v>43465</v>
       </c>
       <c r="D15">
-        <v>42.82212632249508</v>
+        <v>11.18599987030029</v>
       </c>
       <c r="E15">
-        <v>46.75239944458008</v>
+        <v>14.26799964904785</v>
       </c>
       <c r="F15">
-        <v>46.95784665825049</v>
+        <v>14.57800006866455</v>
       </c>
       <c r="G15">
-        <v>41.83955640128374</v>
+        <v>10.9379997253418</v>
       </c>
       <c r="H15">
-        <v>450687724</v>
+        <v>445666933</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>5018680447</v>
@@ -2345,22 +2237,22 @@
         <v>43555</v>
       </c>
       <c r="D16">
-        <v>83.62000274658203</v>
+        <v>20.1560001373291</v>
       </c>
       <c r="E16">
-        <v>104.0299987792969</v>
+        <v>22.14800071716309</v>
       </c>
       <c r="F16">
-        <v>104.9800033569336</v>
+        <v>22.63800048828125</v>
       </c>
       <c r="G16">
-        <v>82.03099822998047</v>
+        <v>19.12100028991699</v>
       </c>
       <c r="H16">
-        <v>168459019</v>
+        <v>445666933</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>8724373871</v>
@@ -2473,22 +2365,22 @@
         <v>43646</v>
       </c>
       <c r="D17">
-        <v>14.72999954223633</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="E17">
-        <v>16.79999923706055</v>
+        <v>26.33099937438965</v>
       </c>
       <c r="F17">
-        <v>18.36000061035156</v>
+        <v>27.97100067138672</v>
       </c>
       <c r="G17">
-        <v>13.96000003814697</v>
+        <v>22.57999992370605</v>
       </c>
       <c r="H17">
-        <v>1435682333</v>
+        <v>445666933</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>10141666242</v>
@@ -2601,22 +2493,22 @@
         <v>43738</v>
       </c>
       <c r="D18">
-        <v>42.51583583355016</v>
+        <v>18.80100059509277</v>
       </c>
       <c r="E18">
-        <v>42.25590896606445</v>
+        <v>20.07999992370605</v>
       </c>
       <c r="F18">
-        <v>43.8557984628152</v>
+        <v>21.66500091552734</v>
       </c>
       <c r="G18">
-        <v>39.92553545962458</v>
+        <v>18.03800010681152</v>
       </c>
       <c r="H18">
-        <v>539679667</v>
+        <v>445666933</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>8436690872</v>
@@ -2729,22 +2621,22 @@
         <v>43830</v>
       </c>
       <c r="D19">
-        <v>74.30999755859375</v>
+        <v>26.35199928283692</v>
       </c>
       <c r="E19">
-        <v>78.51000213623047</v>
+        <v>26.91799926757812</v>
       </c>
       <c r="F19">
-        <v>80.26000213623047</v>
+        <v>29.38999938964844</v>
       </c>
       <c r="G19">
-        <v>70.55000305175781</v>
+        <v>26.10549926757812</v>
       </c>
       <c r="H19">
-        <v>201104117</v>
+        <v>445666933</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>11725004301</v>
@@ -2857,22 +2749,22 @@
         <v>43921</v>
       </c>
       <c r="D20">
-        <v>26.5</v>
+        <v>18.48999977111816</v>
       </c>
       <c r="E20">
-        <v>30.27000045776367</v>
+        <v>29.25799942016602</v>
       </c>
       <c r="F20">
-        <v>32</v>
+        <v>30.60400009155273</v>
       </c>
       <c r="G20">
-        <v>21.67000007629395</v>
+        <v>15.35000038146973</v>
       </c>
       <c r="H20">
-        <v>2085418676</v>
+        <v>445666933</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>8795724100</v>
@@ -2985,22 +2877,22 @@
         <v>44012</v>
       </c>
       <c r="D21">
-        <v>256.4700012207031</v>
+        <v>40.70800018310547</v>
       </c>
       <c r="E21">
-        <v>280.75</v>
+        <v>45.13199996948242</v>
       </c>
       <c r="F21">
-        <v>287.8299865722656</v>
+        <v>47.56700134277344</v>
       </c>
       <c r="G21">
-        <v>250.9499969482422</v>
+        <v>40.40000152587891</v>
       </c>
       <c r="H21">
-        <v>50845151</v>
+        <v>445666933</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>18722728218</v>
@@ -3113,22 +3005,22 @@
         <v>44104</v>
       </c>
       <c r="D22">
-        <v>142.1999969482422</v>
+        <v>52.99900054931641</v>
       </c>
       <c r="E22">
-        <v>135.75</v>
+        <v>56.64500045776367</v>
       </c>
       <c r="F22">
-        <v>158.7359924316406</v>
+        <v>67.5</v>
       </c>
       <c r="G22">
-        <v>133.8099975585938</v>
+        <v>52.60100173950195</v>
       </c>
       <c r="H22">
-        <v>158300823</v>
+        <v>445666933</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>24251641592</v>
@@ -3241,22 +3133,22 @@
         <v>44196</v>
       </c>
       <c r="D23">
-        <v>29.91399955749512</v>
+        <v>80.59999847412109</v>
       </c>
       <c r="E23">
-        <v>28.95000076293945</v>
+        <v>76.5989990234375</v>
       </c>
       <c r="F23">
-        <v>31.0620002746582</v>
+        <v>83.92800140380859</v>
       </c>
       <c r="G23">
-        <v>27.46199989318848</v>
+        <v>73.11199951171875</v>
       </c>
       <c r="H23">
-        <v>766266033</v>
+        <v>445666933</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>37618400295</v>
@@ -3369,22 +3261,22 @@
         <v>44286</v>
       </c>
       <c r="D24">
-        <v>529.9299926757812</v>
+        <v>67.39099884033203</v>
       </c>
       <c r="E24">
-        <v>513.469970703125</v>
+        <v>72.93099975585938</v>
       </c>
       <c r="F24">
-        <v>563.5599975585938</v>
+        <v>76.86699676513672</v>
       </c>
       <c r="G24">
-        <v>499</v>
+        <v>63.93099975585938</v>
       </c>
       <c r="H24">
-        <v>424926346</v>
+        <v>445666933</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>30875407079</v>
@@ -3488,22 +3380,22 @@
         <v>44377</v>
       </c>
       <c r="D25">
-        <v>46.47724219552952</v>
+        <v>77.16000366210938</v>
       </c>
       <c r="E25">
-        <v>48.50979995727539</v>
+        <v>81.91000366210938</v>
       </c>
       <c r="F25">
-        <v>48.75511095753174</v>
+        <v>86.15000152587891</v>
       </c>
       <c r="G25">
-        <v>45.85521015250949</v>
+        <v>67.37000274658203</v>
       </c>
       <c r="H25">
-        <v>3953196953</v>
+        <v>445666933</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>36805770657</v>
@@ -3616,22 +3508,22 @@
         <v>44469</v>
       </c>
       <c r="D26">
-        <v>138.916410444292</v>
+        <v>70.02999877929688</v>
       </c>
       <c r="E26">
-        <v>146.6503143310547</v>
+        <v>74.91000366210938</v>
       </c>
       <c r="F26">
-        <v>149.9494520691154</v>
+        <v>82.98999786376953</v>
       </c>
       <c r="G26">
-        <v>135.3627448332334</v>
+        <v>65.31999969482422</v>
       </c>
       <c r="H26">
-        <v>14840390000</v>
+        <v>445666933</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>33650907475</v>
@@ -3744,22 +3636,22 @@
         <v>44561</v>
       </c>
       <c r="D27">
-        <v>17.05999946594238</v>
+        <v>92.66000366210938</v>
       </c>
       <c r="E27">
-        <v>15.57999992370606</v>
+        <v>69.54000091552734</v>
       </c>
       <c r="F27">
-        <v>19.65999984741211</v>
+        <v>93.26000213623048</v>
       </c>
       <c r="G27">
-        <v>13.14000034332275</v>
+        <v>55.04999923706055</v>
       </c>
       <c r="H27">
-        <v>250599325</v>
+        <v>445666933</v>
       </c>
       <c r="I27" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>44045240377</v>
@@ -3872,22 +3764,22 @@
         <v>44651</v>
       </c>
       <c r="D28">
-        <v>151.2200012207031</v>
+        <v>69.84999847412109</v>
       </c>
       <c r="E28">
-        <v>119.3099975585938</v>
+        <v>58.91999816894531</v>
       </c>
       <c r="F28">
-        <v>161.6100006103516</v>
+        <v>75.98000335693359</v>
       </c>
       <c r="G28">
-        <v>118.879997253418</v>
+        <v>56.68999862670898</v>
       </c>
       <c r="H28">
-        <v>168459019</v>
+        <v>445666933</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>33574656165</v>
@@ -3988,22 +3880,22 @@
         <v>44742</v>
       </c>
       <c r="D29">
-        <v>3.200000047683716</v>
+        <v>42.13000106811523</v>
       </c>
       <c r="E29">
-        <v>3.930000066757202</v>
+        <v>45</v>
       </c>
       <c r="F29">
-        <v>4.539999961853027</v>
+        <v>51.18999862670898</v>
       </c>
       <c r="G29">
-        <v>3.109999895095825</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>448228270</v>
+        <v>445666933</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>20372187385</v>
@@ -4104,22 +3996,22 @@
         <v>44834</v>
       </c>
       <c r="D30">
-        <v>254.5</v>
+        <v>60.25</v>
       </c>
       <c r="E30">
-        <v>227.5399932861328</v>
+        <v>53.2400016784668</v>
       </c>
       <c r="F30">
-        <v>257.5</v>
+        <v>64.65699768066406</v>
       </c>
       <c r="G30">
-        <v>198.5899963378907</v>
+        <v>48.15999984741211</v>
       </c>
       <c r="H30">
-        <v>3325150886</v>
+        <v>445666933</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>29173271861</v>
@@ -4232,22 +4124,22 @@
         <v>44926</v>
       </c>
       <c r="D31">
-        <v>26.71999931335449</v>
+        <v>45.9900016784668</v>
       </c>
       <c r="E31">
-        <v>28.72999954223633</v>
+        <v>50.70000076293945</v>
       </c>
       <c r="F31">
-        <v>29.72999954223633</v>
+        <v>52.59999847412109</v>
       </c>
       <c r="G31">
-        <v>26.64999961853028</v>
+        <v>41.20000076293945</v>
       </c>
       <c r="H31">
-        <v>178998669</v>
+        <v>445666933</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>21944783823</v>
@@ -4360,22 +4252,22 @@
         <v>45016</v>
       </c>
       <c r="D32">
-        <v>261.1884929516806</v>
+        <v>60</v>
       </c>
       <c r="E32">
-        <v>225.4617156982422</v>
+        <v>64.33999633789062</v>
       </c>
       <c r="F32">
-        <v>262.5264343168398</v>
+        <v>65.66500091552734</v>
       </c>
       <c r="G32">
-        <v>223.9783523558658</v>
+        <v>57.16999816894531</v>
       </c>
       <c r="H32">
-        <v>60498713</v>
+        <v>445666933</v>
       </c>
       <c r="I32" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>29894311146</v>
@@ -4476,22 +4368,22 @@
         <v>45107</v>
       </c>
       <c r="D33">
-        <v>18.42000007629395</v>
+        <v>77.23999786376953</v>
       </c>
       <c r="E33">
-        <v>19.04000091552734</v>
+        <v>91.26000213623048</v>
       </c>
       <c r="F33">
-        <v>19.38999938964844</v>
+        <v>91.84999847412109</v>
       </c>
       <c r="G33">
-        <v>17.57999992370605</v>
+        <v>73.91000366210938</v>
       </c>
       <c r="H33">
-        <v>260676335</v>
+        <v>445666933</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>37748959239</v>
@@ -4592,22 +4484,22 @@
         <v>45199</v>
       </c>
       <c r="D34">
-        <v>62.6169871617784</v>
+        <v>78.15499877929688</v>
       </c>
       <c r="E34">
-        <v>64.67326354980469</v>
+        <v>70.95999908447266</v>
       </c>
       <c r="F34">
-        <v>66.63478202323152</v>
+        <v>86.42500305175781</v>
       </c>
       <c r="G34">
-        <v>60.75970456328059</v>
+        <v>64.69000244140625</v>
       </c>
       <c r="H34">
-        <v>212968277</v>
+        <v>445666933</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>38309005351</v>
@@ -4720,22 +4612,22 @@
         <v>45291</v>
       </c>
       <c r="D35">
-        <v>1152.400024414062</v>
+        <v>71.65000152587891</v>
       </c>
       <c r="E35">
-        <v>1198.829956054688</v>
+        <v>68.43000030517578</v>
       </c>
       <c r="F35">
-        <v>1307.140014648438</v>
+        <v>72.15000152587891</v>
       </c>
       <c r="G35">
-        <v>1113.18994140625</v>
+        <v>61.47499847412109</v>
       </c>
       <c r="H35">
-        <v>24003656</v>
+        <v>445666933</v>
       </c>
       <c r="I35" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>35281773055</v>
@@ -4848,22 +4740,22 @@
         <v>45382</v>
       </c>
       <c r="D36">
-        <v>104.6600036621094</v>
+        <v>87.40000152587891</v>
       </c>
       <c r="E36">
-        <v>92.98000335693359</v>
+        <v>82.84999847412109</v>
       </c>
       <c r="F36">
-        <v>105.0100021362305</v>
+        <v>88.61000061035156</v>
       </c>
       <c r="G36">
-        <v>90.66999816894533</v>
+        <v>76.12000274658203</v>
       </c>
       <c r="H36">
-        <v>168459019</v>
+        <v>445666933</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>42742857766</v>
@@ -4976,22 +4868,22 @@
         <v>45473</v>
       </c>
       <c r="D37">
-        <v>53.97000122070312</v>
+        <v>97.43000030517578</v>
       </c>
       <c r="E37">
-        <v>52.63999938964844</v>
+        <v>89.87999725341797</v>
       </c>
       <c r="F37">
-        <v>65.87999725341797</v>
+        <v>102.6699981689453</v>
       </c>
       <c r="G37">
-        <v>50.29000091552734</v>
+        <v>88.26000213623047</v>
       </c>
       <c r="H37">
-        <v>42689006</v>
+        <v>445666933</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>47773037313</v>
@@ -5104,22 +4996,22 @@
         <v>45565</v>
       </c>
       <c r="D38">
-        <v>36.50313191135645</v>
+        <v>110.5849990844727</v>
       </c>
       <c r="E38">
-        <v>39.63111877441406</v>
+        <v>120.2099990844727</v>
       </c>
       <c r="F38">
-        <v>41.15769383693995</v>
+        <v>123.8499984741211</v>
       </c>
       <c r="G38">
-        <v>34.26814654717644</v>
+        <v>106.6999969482422</v>
       </c>
       <c r="H38">
-        <v>171080665</v>
+        <v>445666933</v>
       </c>
       <c r="I38" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>53901513446</v>
@@ -5232,22 +5124,22 @@
         <v>45657</v>
       </c>
       <c r="D39">
-        <v>12.96000003814697</v>
+        <v>119.0699996948242</v>
       </c>
       <c r="E39">
-        <v>14.22000026702881</v>
+        <v>118.6800003051758</v>
       </c>
       <c r="F39">
-        <v>15.34500026702881</v>
+        <v>127.5899963378906</v>
       </c>
       <c r="G39">
-        <v>12.61999988555908</v>
+        <v>115.8499984741211</v>
       </c>
       <c r="H39">
-        <v>453568899</v>
+        <v>445666933</v>
       </c>
       <c r="I39" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>58009741995</v>
@@ -5360,22 +5252,22 @@
         <v>45747</v>
       </c>
       <c r="D40">
-        <v>187.8600006103516</v>
+        <v>54.54000091552734</v>
       </c>
       <c r="E40">
-        <v>184.4199981689453</v>
+        <v>53.63000106811523</v>
       </c>
       <c r="F40">
-        <v>198.3399963378907</v>
+        <v>57.67800140380859</v>
       </c>
       <c r="G40">
-        <v>161.3800048828125</v>
+        <v>42.95999908447266</v>
       </c>
       <c r="H40">
-        <v>10664912097</v>
+        <v>445666933</v>
       </c>
       <c r="I40" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>27145965839</v>
@@ -5488,22 +5380,22 @@
         <v>45838</v>
       </c>
       <c r="D41">
-        <v>105.0804770925983</v>
+        <v>73.43499755859375</v>
       </c>
       <c r="E41">
-        <v>103.1780242919922</v>
+        <v>86.95999908447266</v>
       </c>
       <c r="F41">
-        <v>109.3114367486601</v>
+        <v>89.13400268554688</v>
       </c>
       <c r="G41">
-        <v>101.4440230697358</v>
+        <v>72.37400054931641</v>
       </c>
       <c r="H41">
-        <v>199618386</v>
+        <v>445666933</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>35378669781</v>
